--- a/artfynd/A 19852-2020.xlsx
+++ b/artfynd/A 19852-2020.xlsx
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>589487.5135428408</v>
+        <v>589488</v>
       </c>
       <c r="R2" t="n">
-        <v>6868238.69745752</v>
+        <v>6868239</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>

--- a/artfynd/A 19852-2020.xlsx
+++ b/artfynd/A 19852-2020.xlsx
@@ -683,7 +683,7 @@
         <v>111929656</v>
       </c>
       <c r="B2" t="n">
-        <v>88032</v>
+        <v>88166</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>

--- a/artfynd/A 19852-2020.xlsx
+++ b/artfynd/A 19852-2020.xlsx
@@ -683,7 +683,7 @@
         <v>111929656</v>
       </c>
       <c r="B2" t="n">
-        <v>88166</v>
+        <v>88180</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
